--- a/F班/諸石/データベース設計書.xlsx
+++ b/F班/諸石/データベース設計書.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\634sv\share\yamashita\PJ開発演習\F班\諸石\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\jyoko3dev\sagyou\F班\諸石\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="104">
   <si>
     <t>エンティティ情報</t>
   </si>
@@ -557,6 +557,10 @@
   </si>
   <si>
     <t>h_mail</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>@INT(7)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1062,6 +1066,18 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1069,18 +1085,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2463,7 +2467,7 @@
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:F16"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2613,7 +2617,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="F11" s="30" t="s">
         <v>15</v>
@@ -2774,8 +2778,8 @@
       <c r="B23" s="26"/>
       <c r="C23" s="26"/>
       <c r="D23" s="22"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="48"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="52"/>
       <c r="G23" s="26"/>
       <c r="H23" s="23"/>
     </row>
@@ -2824,28 +2828,28 @@
       <c r="B28" s="26"/>
       <c r="C28" s="26"/>
       <c r="D28" s="22"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="48"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="52"/>
       <c r="G28" s="26"/>
       <c r="H28" s="23"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="21"/>
       <c r="B29" s="22"/>
-      <c r="C29" s="47"/>
-      <c r="D29" s="48"/>
-      <c r="E29" s="47"/>
-      <c r="F29" s="48"/>
+      <c r="C29" s="51"/>
+      <c r="D29" s="52"/>
+      <c r="E29" s="51"/>
+      <c r="F29" s="52"/>
       <c r="G29" s="22"/>
       <c r="H29" s="23"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="21"/>
       <c r="B30" s="22"/>
-      <c r="C30" s="47"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="47"/>
-      <c r="F30" s="48"/>
+      <c r="C30" s="51"/>
+      <c r="D30" s="52"/>
+      <c r="E30" s="51"/>
+      <c r="F30" s="52"/>
       <c r="G30" s="22"/>
       <c r="H30" s="23"/>
     </row>
@@ -2889,7 +2893,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:F17"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3031,7 +3035,7 @@
         <v>13</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="F11" s="30" t="s">
         <v>15</v>
@@ -3157,7 +3161,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3299,7 +3303,7 @@
         <v>57</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="F11" s="30" t="s">
         <v>15</v>
@@ -3407,7 +3411,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3549,7 +3553,7 @@
         <v>95</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="F11" s="30" t="s">
         <v>15</v>
@@ -3621,8 +3625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3754,19 +3758,19 @@
       <c r="G10" s="26"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B11" s="51">
+      <c r="B11" s="48">
         <v>1</v>
       </c>
-      <c r="C11" s="52" t="s">
+      <c r="C11" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="D11" s="52" t="s">
+      <c r="D11" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="E11" s="52" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="53" t="s">
+      <c r="E11" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="F11" s="50" t="s">
         <v>15</v>
       </c>
       <c r="G11" s="29"/>
@@ -3808,7 +3812,7 @@
       <c r="G13" s="29"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B14" s="50">
+      <c r="B14" s="47">
         <v>4</v>
       </c>
       <c r="C14" s="41" t="s">
@@ -3923,8 +3927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4066,7 +4070,7 @@
         <v>92</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="F11" s="30" t="s">
         <v>15</v>

--- a/F班/諸石/データベース設計書.xlsx
+++ b/F班/諸石/データベース設計書.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="値引きテーブル" sheetId="6" r:id="rId5"/>
     <sheet name="履歴テーブル" sheetId="7" r:id="rId6"/>
     <sheet name="ポイント" sheetId="8" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511" calcMode="manual"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="107">
   <si>
     <t>エンティティ情報</t>
   </si>
@@ -561,6 +562,24 @@
   </si>
   <si>
     <t>@INT(7)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>購入者名</t>
+    <rPh sb="0" eb="3">
+      <t>コウニュウシャ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>h_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2466,7 +2485,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
@@ -2893,7 +2912,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3623,10 +3642,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3865,54 +3884,72 @@
       </c>
       <c r="G16" s="29"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B17" s="16">
         <v>7</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>29</v>
+        <v>104</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="F17" s="31" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+        <v>106</v>
+      </c>
+      <c r="G17" s="29"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B18" s="16">
         <v>8</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="F18" s="31" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="2:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="17">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B19" s="16">
         <v>9</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="31" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="17">
+        <v>10</v>
+      </c>
+      <c r="C20" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="18" t="s">
+      <c r="D20" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="E19" s="18" t="s">
+      <c r="E20" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F19" s="32" t="s">
+      <c r="F20" s="32" t="s">
         <v>65</v>
       </c>
     </row>
@@ -3927,7 +3964,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
@@ -4099,4 +4136,17 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>